--- a/정책 확인 목록.xlsx
+++ b/정책 확인 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTC_DO~1\ISDATA~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>내부-&gt;외부</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>사장님 사이트 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dozn1.insungdata.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행계좌 정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dozn2.insungdata.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,15 +155,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -353,11 +356,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -401,13 +401,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1001,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1059,7 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1077,7 +1076,7 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1094,7 +1093,7 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1111,7 +1110,7 @@
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1128,10 +1127,10 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1">
@@ -1145,10 +1144,10 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
@@ -1162,10 +1161,10 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
@@ -1177,25 +1176,41 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9200</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1204,7 +1219,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1213,7 +1228,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1222,7 +1237,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1231,7 +1246,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1240,7 +1255,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1249,7 +1264,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1258,7 +1273,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1267,7 +1282,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1276,7 +1291,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1285,7 +1300,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1294,7 +1309,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1303,7 +1318,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1312,74 +1327,25 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>